--- a/data-raw/ITNS-Ch09-Excercises data - meta-analysis-gdc.xlsx
+++ b/data-raw/ITNS-Ch09-Excercises data - meta-analysis-gdc.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="anchor_adjust_babies_MA" sheetId="14" r:id="rId1"/>
-    <sheet name="flag_priming_MA" sheetId="20" r:id="rId2"/>
-    <sheet name="gender_math_IAT_MA" sheetId="18" r:id="rId3"/>
-    <sheet name="power_performance_MA" sheetId="21" r:id="rId4"/>
+    <sheet name="anchor_adjust_meta-analysis" sheetId="14" r:id="rId1"/>
+    <sheet name="flag_priming_meta-analysis" sheetId="20" r:id="rId2"/>
+    <sheet name="math_gender_IAT_meta-analysis" sheetId="18" r:id="rId3"/>
+    <sheet name="power_performance_meta-analysis" sheetId="21" r:id="rId4"/>
     <sheet name="gambler_fallacy_MA" sheetId="22" r:id="rId5"/>
     <sheet name="anchor_adjust_chicago_MA" sheetId="15" r:id="rId6"/>
     <sheet name="anchor_adjust_everest_MA" sheetId="16" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">anchor_adjust_babies_MA!$A$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flag_priming_MA!$A$1:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'anchor_adjust_meta-analysis'!$A$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'flag_priming_meta-analysis'!$A$1:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">gambler_fallacy_MA!$A$1:$L$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">gender_math_IAT_MA!$A$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">power_performance_MA!$A$1:$O$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'math_gender_IAT_meta-analysis'!$A$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'power_performance_meta-analysis'!$A$1:$O$9</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -425,14 +425,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,7 +552,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -563,21 +563,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -589,47 +589,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="66">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="49"/>
-          <bgColor indexed="49"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -652,7 +611,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -670,7 +629,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -688,7 +647,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -706,10 +665,27 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -734,30 +710,13 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="49"/>
           <bgColor indexed="49"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -781,7 +740,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -799,7 +758,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -817,7 +776,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -835,10 +794,27 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -848,18 +824,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="43"/>
+          <fgColor indexed="49"/>
+          <bgColor indexed="49"/>
         </patternFill>
       </fill>
     </dxf>
@@ -947,7 +931,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="47"/>
+          <bgColor indexed="43"/>
         </patternFill>
       </fill>
     </dxf>
@@ -955,7 +939,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="43"/>
+          <bgColor indexed="47"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1019,6 +1003,22 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor indexed="42"/>
         </patternFill>
       </fill>
@@ -1048,7 +1048,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1072,7 +1072,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1105,7 +1105,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1129,7 +1129,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1144,54 +1144,7 @@
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1218,7 +1171,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1242,7 +1195,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1290,7 +1243,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1314,7 +1267,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1329,7 +1282,54 @@
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1363,7 +1363,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1387,7 +1387,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1419,7 +1419,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1443,7 +1443,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1461,6 +1461,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6044,16 +6049,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:G26" totalsRowShown="0" headerRowDxfId="49" dataDxfId="50" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:G26" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:G26"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="location" dataDxfId="57"/>
-    <tableColumn id="2" name="M_flagprimed" dataDxfId="56" dataCellStyle="Comma"/>
-    <tableColumn id="9" name="SD_flagprimed" dataDxfId="55" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="N_flagprimed" dataDxfId="54" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="M_neutralprimed" dataDxfId="53" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="SD_neutralprimed" dataDxfId="52" dataCellStyle="Comma"/>
-    <tableColumn id="7" name="N_neutralprimed" dataDxfId="51"/>
+    <tableColumn id="1" name="location" dataDxfId="55"/>
+    <tableColumn id="2" name="M_flagprimed" dataDxfId="54" dataCellStyle="Comma"/>
+    <tableColumn id="9" name="SD_flagprimed" dataDxfId="53" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="N_flagprimed" dataDxfId="52" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="M_neutralprimed" dataDxfId="51" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="SD_neutralprimed" dataDxfId="50" dataCellStyle="Comma"/>
+    <tableColumn id="7" name="N_neutralprimed" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6078,80 +6083,80 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:O9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:O9" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Country" dataDxfId="40"/>
-    <tableColumn id="2" name="Sample" dataDxfId="39"/>
-    <tableColumn id="3" name="Difficulty" dataDxfId="38"/>
+    <tableColumn id="1" name="Country" dataDxfId="38"/>
+    <tableColumn id="2" name="Sample" dataDxfId="37"/>
+    <tableColumn id="3" name="Difficulty" dataDxfId="36"/>
     <tableColumn id="4" name="Manipulation"/>
     <tableColumn id="5" name="DVType"/>
     <tableColumn id="6" name="DV"/>
-    <tableColumn id="7" name="Study" dataDxfId="37"/>
+    <tableColumn id="7" name="Study" dataDxfId="35"/>
     <tableColumn id="8" name="M_control"/>
     <tableColumn id="9" name="SD_control"/>
     <tableColumn id="10" name="M_power"/>
     <tableColumn id="11" name="SD_power"/>
     <tableColumn id="12" name="Column1"/>
-    <tableColumn id="13" name="Cohen d" dataDxfId="36"/>
-    <tableColumn id="14" name="N_control" dataDxfId="35"/>
-    <tableColumn id="15" name="N_Power" dataDxfId="34"/>
+    <tableColumn id="13" name="Cohen d" dataDxfId="34"/>
+    <tableColumn id="14" name="N_control" dataDxfId="33"/>
+    <tableColumn id="15" name="N_Power" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:L13"/>
   <sortState ref="A2:H13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" name="Participant_Type"/>
-    <tableColumn id="2" name="Study" dataDxfId="31"/>
-    <tableColumn id="11" name="Cohen_d" dataDxfId="30"/>
-    <tableColumn id="14" name="N_SomeSix" dataDxfId="29"/>
-    <tableColumn id="13" name="N_AllSix" dataDxfId="28"/>
+    <tableColumn id="2" name="Study" dataDxfId="29"/>
+    <tableColumn id="11" name="Cohen_d" dataDxfId="28"/>
+    <tableColumn id="14" name="N_SomeSix" dataDxfId="27"/>
+    <tableColumn id="13" name="N_AllSix" dataDxfId="26"/>
     <tableColumn id="12" name="Column1"/>
-    <tableColumn id="3" name="M_SomeSix" dataDxfId="27"/>
-    <tableColumn id="4" name="SD_SomeSix" dataDxfId="26"/>
-    <tableColumn id="5" name="N_SomeSix2" dataDxfId="25"/>
-    <tableColumn id="6" name="M_AllSix" dataDxfId="24"/>
-    <tableColumn id="7" name="SD_AllSix" dataDxfId="23"/>
-    <tableColumn id="8" name="N_AllSix2" dataDxfId="22"/>
+    <tableColumn id="3" name="M_SomeSix" dataDxfId="25"/>
+    <tableColumn id="4" name="SD_SomeSix" dataDxfId="24"/>
+    <tableColumn id="5" name="N_SomeSix2" dataDxfId="23"/>
+    <tableColumn id="6" name="M_AllSix" dataDxfId="22"/>
+    <tableColumn id="7" name="SD_AllSix" dataDxfId="21"/>
+    <tableColumn id="8" name="N_AllSix2" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G37" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11" headerRowBorderDxfId="19" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G37" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:G37"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="18"/>
-    <tableColumn id="2" name="M_highanchor" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="M_lowanchor" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="4" name="SD_highanchor" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="SD_lowanchor" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="N_highanchor" dataDxfId="13"/>
-    <tableColumn id="7" name="N_lowanchor" dataDxfId="12"/>
+    <tableColumn id="1" name="Location" dataDxfId="16"/>
+    <tableColumn id="2" name="M_highanchor" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="M_lowanchor" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="SD_highanchor" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="SD_lowanchor" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="N_highanchor" dataDxfId="11"/>
+    <tableColumn id="7" name="N_lowanchor" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:G37"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="8"/>
-    <tableColumn id="2" name="M_highanchor" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="M_lowanchor" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="4" name="SD_highanchor" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="SD_lowanchor" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="N_highanchor" dataDxfId="3"/>
-    <tableColumn id="7" name="N_lowanchor" dataDxfId="2"/>
+    <tableColumn id="1" name="Location" dataDxfId="6"/>
+    <tableColumn id="2" name="M_highanchor" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="M_lowanchor" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="SD_highanchor" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="SD_lowanchor" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="N_highanchor" dataDxfId="1"/>
+    <tableColumn id="7" name="N_lowanchor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6412,21 +6417,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
@@ -6438,7 +6443,7 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -6496,7 +6501,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -6525,7 +6530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -6554,7 +6559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -6583,7 +6588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -6612,7 +6617,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -6670,7 +6675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -6699,7 +6704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -6728,7 +6733,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -6757,7 +6762,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -6844,7 +6849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -6873,7 +6878,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
@@ -6902,7 +6907,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -6989,7 +6994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -7047,7 +7052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -7076,7 +7081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -7105,7 +7110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -7134,7 +7139,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
@@ -7163,7 +7168,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -7192,7 +7197,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -7250,7 +7255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -7279,7 +7284,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -7337,11 +7342,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>130</v>
       </c>
@@ -7354,7 +7359,7 @@
         <v>4035.6568991222948</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
     </row>
   </sheetData>
@@ -7368,14 +7373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="4" width="15.42578125" style="6" customWidth="1"/>
@@ -7384,7 +7389,7 @@
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
@@ -7453,7 +7458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -7499,7 +7504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -7522,7 +7527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -7545,7 +7550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
@@ -7568,7 +7573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -7591,7 +7596,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -7614,7 +7619,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
@@ -7660,7 +7665,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
@@ -7683,7 +7688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
@@ -7729,7 +7734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
@@ -7752,7 +7757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
@@ -7775,7 +7780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
@@ -7798,7 +7803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
@@ -7821,7 +7826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>28</v>
       </c>
@@ -7844,7 +7849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>30</v>
       </c>
@@ -7867,7 +7872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
@@ -7890,7 +7895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>32</v>
       </c>
@@ -7913,7 +7918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>33</v>
       </c>
@@ -7936,7 +7941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>34</v>
       </c>
@@ -7959,7 +7964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>35</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -8000,21 +8005,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" style="6" customWidth="1"/>
     <col min="4" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -8043,7 +8048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -8072,7 +8077,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -8101,7 +8106,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -8188,7 +8193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -8217,7 +8222,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -8275,7 +8280,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
@@ -8304,7 +8309,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
@@ -8333,7 +8338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
@@ -8362,7 +8367,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
@@ -8391,7 +8396,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -8420,7 +8425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
@@ -8449,7 +8454,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>14</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
@@ -8507,7 +8512,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -8536,7 +8541,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
@@ -8565,7 +8570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
@@ -8623,7 +8628,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>20</v>
       </c>
@@ -8652,7 +8657,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
@@ -8681,7 +8686,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>22</v>
       </c>
@@ -8710,7 +8715,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>23</v>
       </c>
@@ -8739,7 +8744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>24</v>
       </c>
@@ -8768,7 +8773,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>26</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>27</v>
       </c>
@@ -8855,7 +8860,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>28</v>
       </c>
@@ -8884,7 +8889,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>29</v>
       </c>
@@ -8913,7 +8918,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
     </row>
@@ -8928,14 +8933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -8954,7 +8959,7 @@
     <col min="15" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>91</v>
       </c>
@@ -9001,7 +9006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>106</v>
       </c>
@@ -9045,7 +9050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>106</v>
       </c>
@@ -9089,7 +9094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>90</v>
       </c>
@@ -9133,7 +9138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>90</v>
       </c>
@@ -9177,7 +9182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>90</v>
       </c>
@@ -9221,7 +9226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>90</v>
       </c>
@@ -9265,7 +9270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>90</v>
       </c>
@@ -9309,7 +9314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>90</v>
       </c>
@@ -9364,14 +9369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="5" width="19.85546875" customWidth="1"/>
@@ -9384,7 +9389,7 @@
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -9422,7 +9427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -9492,7 +9497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -9527,7 +9532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -9562,7 +9567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -9597,7 +9602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -9632,7 +9637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -9667,7 +9672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -9702,7 +9707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -9737,7 +9742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -9772,7 +9777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -9807,7 +9812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -9867,14 +9872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="7" customWidth="1"/>
@@ -9885,7 +9890,7 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -9908,7 +9913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -9931,7 +9936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -9954,7 +9959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -9977,7 +9982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -10000,7 +10005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -10023,7 +10028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -10046,7 +10051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -10069,7 +10074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -10092,7 +10097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -10115,7 +10120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -10138,7 +10143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -10161,7 +10166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -10184,7 +10189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -10207,7 +10212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -10230,7 +10235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -10253,7 +10258,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -10276,7 +10281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -10299,7 +10304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -10322,7 +10327,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -10345,7 +10350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -10368,7 +10373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -10391,7 +10396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -10414,7 +10419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -10437,7 +10442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -10460,7 +10465,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -10483,7 +10488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -10506,7 +10511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -10529,7 +10534,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -10552,7 +10557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -10575,7 +10580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -10598,7 +10603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -10621,7 +10626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -10644,7 +10649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -10667,7 +10672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -10690,7 +10695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -10713,7 +10718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -10747,14 +10752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="7" customWidth="1"/>
@@ -10765,7 +10770,7 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -10788,7 +10793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10811,7 +10816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -10834,7 +10839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -10857,7 +10862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -10880,7 +10885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -10903,7 +10908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -10926,7 +10931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -10949,7 +10954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -10972,7 +10977,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -10995,7 +11000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -11018,7 +11023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -11041,7 +11046,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -11064,7 +11069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -11087,7 +11092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -11110,7 +11115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -11133,7 +11138,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -11156,7 +11161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -11179,7 +11184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -11202,7 +11207,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -11225,7 +11230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -11248,7 +11253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -11271,7 +11276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -11294,7 +11299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -11317,7 +11322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -11340,7 +11345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -11363,7 +11368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -11386,7 +11391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -11409,7 +11414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -11432,7 +11437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -11455,7 +11460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -11501,7 +11506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -11524,7 +11529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -11547,7 +11552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -11570,7 +11575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -11593,7 +11598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
